--- a/atas_reunioes/malhas_geradas_curva_superficie/curva_superficie.xlsx
+++ b/atas_reunioes/malhas_geradas_curva_superficie/curva_superficie.xlsx
@@ -270,7 +270,7 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
+      <selection pane="topLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
